--- a/Requisitos e Casos de Uso.xlsx
+++ b/Requisitos e Casos de Uso.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="5235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
-  <si>
-    <t>RE Nº</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>DESCRIÇÃO</t>
   </si>
@@ -57,9 +54,6 @@
     <t>Permitir que qualquer cliente possa consultar e visualizar os produtos</t>
   </si>
   <si>
-    <t xml:space="preserve">Cliente            Cliente Registrado   </t>
-  </si>
-  <si>
     <t>Cliente</t>
   </si>
   <si>
@@ -84,12 +78,6 @@
     <t>Permitir que o cliente registrado realize compra no site.</t>
   </si>
   <si>
-    <t>Calculo Frete</t>
-  </si>
-  <si>
-    <t>Enviar Email</t>
-  </si>
-  <si>
     <t>Realizar baixa do produto no estoque no após a confirmação do pagamento.</t>
   </si>
   <si>
@@ -99,9 +87,6 @@
     <t>Provedor de cartão</t>
   </si>
   <si>
-    <t>Envio Confirmação Pagamento</t>
-  </si>
-  <si>
     <t>Realizar emissão de pagamento.</t>
   </si>
   <si>
@@ -111,24 +96,15 @@
     <t>Administrador</t>
   </si>
   <si>
-    <t>Regra de Quantidade mínima e máxima no Estoque</t>
-  </si>
-  <si>
     <t>Permitir que o Administrador visualizer o estado de cada produto no estoque.</t>
   </si>
   <si>
-    <t>Visualizar Estado Produto no Estoque</t>
-  </si>
-  <si>
     <t>Visualizar Venda por Periodo</t>
   </si>
   <si>
     <t>Permitira a entrada do cliente e do administrador para os recursos do site de acordo com seu perfil.</t>
   </si>
   <si>
-    <t>Permitira a modificar os seus dados cadastrais.</t>
-  </si>
-  <si>
     <t>Permitir que o cliente registrado realize a visualização dos históricos de compras efetuadas.</t>
   </si>
   <si>
@@ -150,16 +126,52 @@
     <t>Permitir que o Administrador realize a criação, modificação e desativação do produto.</t>
   </si>
   <si>
-    <t>Permitir que o Administrador realize a regra de quantidade mínima e máxima de estoque para cada produto.</t>
-  </si>
-  <si>
     <t>Permitir que o Administrador visualizer as vendas por período.</t>
   </si>
   <si>
-    <t>Realizar envio de e-mail logo após que o produto estive disponível no estoque.</t>
-  </si>
-  <si>
-    <t>Realizar envio de e-mail confirmado o pagamento.</t>
+    <t>Nº</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente                    Cliente Registrado   </t>
+  </si>
+  <si>
+    <t>Permitira a modificação dos seus dados cadastrais.</t>
+  </si>
+  <si>
+    <t>Definir niveis de Estoque</t>
+  </si>
+  <si>
+    <t>Permitir que o Administrador realize a definição de níveis de mínimo e máximo no estoque para cada produto.</t>
+  </si>
+  <si>
+    <t>Calcular Frete</t>
+  </si>
+  <si>
+    <t>Enviar Email  disponibilidade pedido</t>
+  </si>
+  <si>
+    <t>Realizar o envio de e-mail logo após que o produto estive disponível no estoque.</t>
+  </si>
+  <si>
+    <t>Verificar pedidos</t>
+  </si>
+  <si>
+    <t>Realizar a verificação ser o pedido está disponível no estoque.</t>
+  </si>
+  <si>
+    <t>Enviar Confirmação Pagamento</t>
+  </si>
+  <si>
+    <t>Realizar envio da confirmação do pagamento.</t>
+  </si>
+  <si>
+    <t>Enviar Email confirmação de compra</t>
+  </si>
+  <si>
+    <t>Realizar envio de e-mail confirmado o pagamento da compra.</t>
+  </si>
+  <si>
+    <t>Visualizar disponibilidade do Produto</t>
   </si>
 </sst>
 </file>
@@ -191,7 +203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -199,39 +211,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,379 +577,398 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="68.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="5" max="5" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.7109375" customWidth="1"/>
+    <col min="5" max="5" width="3.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="12">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="12">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="12">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="12">
+        <v>5</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="12">
+        <v>6</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="12">
+        <v>7</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="12">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="12">
+        <v>9</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="12">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="12">
+        <v>11</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="12">
+        <v>12</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="12">
+        <v>13</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="B16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="12">
+        <v>14</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="12">
+        <v>15</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="12">
+        <v>16</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="C19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="12">
+        <v>17</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="12">
+        <v>18</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="12">
+        <v>19</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4">
-        <v>4</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="4">
-        <v>5</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4">
-        <v>6</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="4">
-        <v>7</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="4">
-        <v>8</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="12">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="4">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="4">
-        <v>11</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="4">
-        <v>12</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="4">
-        <v>13</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="4">
-        <v>14</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="F22" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="4">
-        <v>15</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>16</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="4">
-        <v>16</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="4">
-        <v>17</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>18</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="4">
-        <v>18</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="2"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="2"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="2"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="1"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="F27" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>